--- a/Activities-bar-chart-pert-chart-BBQ.xlsx
+++ b/Activities-bar-chart-pert-chart-BBQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC83C10-30F2-436E-8158-9CC46791C284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3010AA5-1F37-4F90-BE24-85C6EF74DB76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="today" localSheetId="0">ProjectSchedule!$E$3</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
   <si>
     <t>Project Start:</t>
   </si>
@@ -191,9 +191,6 @@
     <t>Bài tập 1 (của thầy) activity bar chart</t>
   </si>
   <si>
-    <t>bài tập 1 (của thầy) activity bar chart</t>
-  </si>
-  <si>
     <t>Bảng trách nhiệm</t>
   </si>
   <si>
@@ -210,6 +207,75 @@
   </si>
   <si>
     <t>ERD</t>
+  </si>
+  <si>
+    <t>DFD hoàn thiện</t>
+  </si>
+  <si>
+    <t>Sơ đồ tổng quát</t>
+  </si>
+  <si>
+    <t>Giao diện Prototype Part 1</t>
+  </si>
+  <si>
+    <t>Usecase</t>
+  </si>
+  <si>
+    <t>Test code demo</t>
+  </si>
+  <si>
+    <t>Code login , Admin menu</t>
+  </si>
+  <si>
+    <t>Code Đặt bàn , Gọi Món,Thanh Toán</t>
+  </si>
+  <si>
+    <t>Code quản lý kho ,nhập hàng</t>
+  </si>
+  <si>
+    <t>Code Quản Lý Nhân viên</t>
+  </si>
+  <si>
+    <t>Nam , Nhân , Minh lạc</t>
+  </si>
+  <si>
+    <t>Minh lê</t>
+  </si>
+  <si>
+    <t>Ân</t>
+  </si>
+  <si>
+    <t>Thanh nhân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code khuyến mãi </t>
+  </si>
+  <si>
+    <t>Sequence</t>
+  </si>
+  <si>
+    <t>Họp chung</t>
+  </si>
+  <si>
+    <t>Họp</t>
+  </si>
+  <si>
+    <t>Minh Lạc</t>
+  </si>
+  <si>
+    <t>Minh lạc</t>
+  </si>
+  <si>
+    <t>bài tập 2 (của thầy) biễu mẫu</t>
+  </si>
+  <si>
+    <t>State Machine</t>
+  </si>
+  <si>
+    <t>Giao diện Prototype Part 2</t>
+  </si>
+  <si>
+    <t>Làm báo cáo thầy</t>
   </si>
 </sst>
 </file>
@@ -952,26 +1018,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1281,13 +1347,13 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>213360</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>33</xdr:col>
-          <xdr:colOff>83820</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>220980</xdr:rowOff>
+          <xdr:rowOff>219075</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1652,25 +1718,25 @@
   <dimension ref="A1:BL66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="101" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" customWidth="1"/>
-    <col min="9" max="64" width="2.5546875" customWidth="1"/>
-    <col min="69" max="70" width="10.33203125"/>
+    <col min="8" max="8" width="5.28515625" customWidth="1"/>
+    <col min="9" max="64" width="2.5703125" customWidth="1"/>
+    <col min="69" max="70" width="10.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:64" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
@@ -1680,26 +1746,26 @@
       <c r="F1" s="66"/>
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
-      <c r="X1" s="101"/>
-      <c r="Y1" s="101"/>
-      <c r="Z1" s="101"/>
-      <c r="AA1" s="101"/>
-    </row>
-    <row r="2" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+    </row>
+    <row r="2" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="100" t="s">
         <v>30</v>
       </c>
@@ -1707,112 +1773,112 @@
       <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="105">
+      <c r="E2" s="102">
         <v>44100</v>
       </c>
-      <c r="F2" s="106"/>
-    </row>
-    <row r="3" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="103"/>
+    </row>
+    <row r="3" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="105">
+      <c r="E3" s="102">
         <v>44115</v>
       </c>
-      <c r="F3" s="106"/>
-    </row>
-    <row r="4" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="103"/>
+    </row>
+    <row r="4" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="102">
+      <c r="I4" s="104">
         <f>I5</f>
         <v>44095</v>
       </c>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="102">
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="104">
         <f>P5</f>
         <v>44102</v>
       </c>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="102">
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="104">
         <f>W5</f>
         <v>44109</v>
       </c>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="103"/>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="103"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="102">
+      <c r="X4" s="105"/>
+      <c r="Y4" s="105"/>
+      <c r="Z4" s="105"/>
+      <c r="AA4" s="105"/>
+      <c r="AB4" s="105"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="104">
         <f>AD5</f>
         <v>44116</v>
       </c>
-      <c r="AE4" s="103"/>
-      <c r="AF4" s="103"/>
-      <c r="AG4" s="103"/>
-      <c r="AH4" s="103"/>
-      <c r="AI4" s="103"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="102">
+      <c r="AE4" s="105"/>
+      <c r="AF4" s="105"/>
+      <c r="AG4" s="105"/>
+      <c r="AH4" s="105"/>
+      <c r="AI4" s="105"/>
+      <c r="AJ4" s="106"/>
+      <c r="AK4" s="104">
         <f>AK5</f>
         <v>44123</v>
       </c>
-      <c r="AL4" s="103"/>
-      <c r="AM4" s="103"/>
-      <c r="AN4" s="103"/>
-      <c r="AO4" s="103"/>
-      <c r="AP4" s="103"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="102">
+      <c r="AL4" s="105"/>
+      <c r="AM4" s="105"/>
+      <c r="AN4" s="105"/>
+      <c r="AO4" s="105"/>
+      <c r="AP4" s="105"/>
+      <c r="AQ4" s="106"/>
+      <c r="AR4" s="104">
         <f>AR5</f>
         <v>44130</v>
       </c>
-      <c r="AS4" s="103"/>
-      <c r="AT4" s="103"/>
-      <c r="AU4" s="103"/>
-      <c r="AV4" s="103"/>
-      <c r="AW4" s="103"/>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="102">
+      <c r="AS4" s="105"/>
+      <c r="AT4" s="105"/>
+      <c r="AU4" s="105"/>
+      <c r="AV4" s="105"/>
+      <c r="AW4" s="105"/>
+      <c r="AX4" s="106"/>
+      <c r="AY4" s="104">
         <f>AY5</f>
         <v>44137</v>
       </c>
-      <c r="AZ4" s="103"/>
-      <c r="BA4" s="103"/>
-      <c r="BB4" s="103"/>
-      <c r="BC4" s="103"/>
-      <c r="BD4" s="103"/>
-      <c r="BE4" s="104"/>
-      <c r="BF4" s="102">
+      <c r="AZ4" s="105"/>
+      <c r="BA4" s="105"/>
+      <c r="BB4" s="105"/>
+      <c r="BC4" s="105"/>
+      <c r="BD4" s="105"/>
+      <c r="BE4" s="106"/>
+      <c r="BF4" s="104">
         <f>BF5</f>
         <v>44144</v>
       </c>
-      <c r="BG4" s="103"/>
-      <c r="BH4" s="103"/>
-      <c r="BI4" s="103"/>
-      <c r="BJ4" s="103"/>
-      <c r="BK4" s="103"/>
-      <c r="BL4" s="104"/>
-    </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BG4" s="105"/>
+      <c r="BH4" s="105"/>
+      <c r="BI4" s="105"/>
+      <c r="BJ4" s="105"/>
+      <c r="BK4" s="105"/>
+      <c r="BL4" s="106"/>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="G5" s="6"/>
       <c r="I5" s="13">
@@ -2040,7 +2106,7 @@
         <v>44150</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
       <c r="B6" s="10" t="s">
         <v>8</v>
@@ -2284,7 +2350,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
@@ -2353,7 +2419,7 @@
       <c r="BK7" s="50"/>
       <c r="BL7" s="50"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="26" t="s">
         <v>23</v>
@@ -2430,7 +2496,7 @@
       <c r="BK8" s="50"/>
       <c r="BL8" s="50"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
       <c r="B9" s="29" t="s">
         <v>24</v>
@@ -2507,12 +2573,14 @@
       <c r="BK9" s="50"/>
       <c r="BL9" s="50"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="D10" s="31">
         <v>1</v>
       </c>
@@ -2584,7 +2652,7 @@
       <c r="BK10" s="50"/>
       <c r="BL10" s="50"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
       <c r="B11" s="32" t="s">
         <v>25</v>
@@ -2661,12 +2729,14 @@
       <c r="BK11" s="50"/>
       <c r="BL11" s="50"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="36"/>
+      <c r="C12" s="36" t="s">
+        <v>63</v>
+      </c>
       <c r="D12" s="37">
         <v>1</v>
       </c>
@@ -2738,7 +2808,7 @@
       <c r="BK12" s="50"/>
       <c r="BL12" s="50"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="35" t="s">
         <v>37</v>
@@ -2815,7 +2885,7 @@
       <c r="BK13" s="50"/>
       <c r="BL13" s="50"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="38" t="s">
         <v>26</v>
@@ -2892,12 +2962,14 @@
       <c r="BK14" s="50"/>
       <c r="BL14" s="50"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="42"/>
+        <v>65</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="D15" s="43">
         <v>1</v>
       </c>
@@ -2969,12 +3041,14 @@
       <c r="BK15" s="50"/>
       <c r="BL15" s="50"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
       <c r="B16" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="42"/>
+        <v>40</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="D16" s="43">
         <v>1</v>
       </c>
@@ -2986,7 +3060,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="25">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H16:H48" si="8">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>18</v>
       </c>
       <c r="I16" s="50"/>
@@ -3046,12 +3120,14 @@
       <c r="BK16" s="50"/>
       <c r="BL16" s="50"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="B17" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="42"/>
+      <c r="C17" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="D17" s="43">
         <v>1</v>
       </c>
@@ -3063,7 +3139,7 @@
       </c>
       <c r="G17" s="50"/>
       <c r="H17" s="25">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="I17" s="50"/>
@@ -3118,7 +3194,7 @@
       <c r="BF17" s="50"/>
       <c r="BG17" s="50"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="44" t="s">
         <v>28</v>
@@ -3135,7 +3211,7 @@
       </c>
       <c r="G18" s="50"/>
       <c r="H18" s="25">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I18" s="50"/>
@@ -3185,7 +3261,7 @@
       <c r="BA18" s="50"/>
       <c r="BB18" s="50"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="44" t="s">
         <v>38</v>
@@ -3202,7 +3278,7 @@
       </c>
       <c r="G19" s="50"/>
       <c r="H19" s="25">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I19" s="50"/>
@@ -3252,9 +3328,9 @@
       <c r="BA19" s="50"/>
       <c r="BB19" s="50"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
-      <c r="B20" s="107" t="s">
+      <c r="B20" s="101" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="86"/>
@@ -3269,7 +3345,7 @@
       </c>
       <c r="G20" s="50"/>
       <c r="H20" s="25">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I20" s="50"/>
@@ -3319,12 +3395,14 @@
       <c r="BA20" s="50"/>
       <c r="BB20" s="50"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="86"/>
+        <v>41</v>
+      </c>
+      <c r="C21" s="86" t="s">
+        <v>61</v>
+      </c>
       <c r="D21" s="87">
         <v>1</v>
       </c>
@@ -3336,7 +3414,7 @@
       </c>
       <c r="G21" s="50"/>
       <c r="H21" s="25">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I21" s="50"/>
@@ -3386,12 +3464,14 @@
       <c r="BA21" s="50"/>
       <c r="BB21" s="50"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="86"/>
+        <v>42</v>
+      </c>
+      <c r="C22" s="86" t="s">
+        <v>61</v>
+      </c>
       <c r="D22" s="87">
         <v>1</v>
       </c>
@@ -3403,7 +3483,7 @@
       </c>
       <c r="G22" s="50"/>
       <c r="H22" s="25">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I22" s="50"/>
@@ -3453,12 +3533,14 @@
       <c r="BA22" s="50"/>
       <c r="BB22" s="50"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="86"/>
+        <v>43</v>
+      </c>
+      <c r="C23" s="86" t="s">
+        <v>61</v>
+      </c>
       <c r="D23" s="87">
         <v>1</v>
       </c>
@@ -3470,7 +3552,7 @@
       </c>
       <c r="G23" s="50"/>
       <c r="H23" s="25">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I23" s="50"/>
@@ -3520,12 +3602,14 @@
       <c r="BA23" s="50"/>
       <c r="BB23" s="50"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
       <c r="B24" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="86"/>
+        <v>44</v>
+      </c>
+      <c r="C24" s="86" t="s">
+        <v>61</v>
+      </c>
       <c r="D24" s="87">
         <v>1</v>
       </c>
@@ -3537,7 +3621,7 @@
       </c>
       <c r="G24" s="50"/>
       <c r="H24" s="25">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="I24" s="50"/>
@@ -3592,13 +3676,17 @@
       <c r="BF24" s="50"/>
       <c r="BG24" s="50"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="86"/>
-      <c r="D25" s="87"/>
+      <c r="C25" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="87">
+        <v>1</v>
+      </c>
       <c r="E25" s="94">
         <v>44151</v>
       </c>
@@ -3607,7 +3695,7 @@
       </c>
       <c r="G25" s="50"/>
       <c r="H25" s="25">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I25" s="50"/>
@@ -3662,17 +3750,27 @@
       <c r="BF25" s="50"/>
       <c r="BG25" s="50"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="95"/>
+      <c r="B26" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="87">
+        <v>1</v>
+      </c>
+      <c r="E26" s="94">
+        <v>44153</v>
+      </c>
+      <c r="F26" s="95">
+        <v>44158</v>
+      </c>
       <c r="G26" s="50"/>
-      <c r="H26" s="25" t="str">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+      <c r="H26" s="25">
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
       <c r="I26" s="50"/>
       <c r="J26" s="50"/>
@@ -3726,19 +3824,27 @@
       <c r="BF26" s="50"/>
       <c r="BG26" s="50"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
-      <c r="B27" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="97"/>
+      <c r="B27" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="87">
+        <v>1</v>
+      </c>
+      <c r="E27" s="94">
+        <v>44158</v>
+      </c>
+      <c r="F27" s="95">
+        <v>44159</v>
+      </c>
       <c r="G27" s="25"/>
-      <c r="H27" s="25" t="str">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+      <c r="H27" s="25">
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="I27" s="50"/>
       <c r="J27" s="50"/>
@@ -3797,19 +3903,27 @@
       <c r="BK27" s="50"/>
       <c r="BL27" s="50"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
-      <c r="B28" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="90"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="99"/>
+      <c r="B28" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="87">
+        <v>0</v>
+      </c>
+      <c r="E28" s="94">
+        <v>44160</v>
+      </c>
+      <c r="F28" s="95">
+        <v>44161</v>
+      </c>
       <c r="G28" s="25"/>
-      <c r="H28" s="25" t="str">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+      <c r="H28" s="25">
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="I28" s="50"/>
       <c r="J28" s="50"/>
@@ -3868,19 +3982,27 @@
       <c r="BK28" s="50"/>
       <c r="BL28" s="50"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
-      <c r="B29" s="89" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="90"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="99"/>
+      <c r="B29" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="87">
+        <v>1</v>
+      </c>
+      <c r="E29" s="94">
+        <v>44158</v>
+      </c>
+      <c r="F29" s="95">
+        <v>44158</v>
+      </c>
       <c r="G29" s="25"/>
-      <c r="H29" s="25" t="str">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+      <c r="H29" s="25">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="I29" s="50"/>
       <c r="J29" s="50"/>
@@ -3939,19 +4061,27 @@
       <c r="BK29" s="50"/>
       <c r="BL29" s="50"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
-      <c r="B30" s="89" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="90"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="99"/>
+      <c r="B30" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="87">
+        <v>0</v>
+      </c>
+      <c r="E30" s="94">
+        <v>44158</v>
+      </c>
+      <c r="F30" s="95">
+        <v>44163</v>
+      </c>
       <c r="G30" s="25"/>
-      <c r="H30" s="25" t="str">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+      <c r="H30" s="25">
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
       <c r="I30" s="50"/>
       <c r="J30" s="50"/>
@@ -4010,17 +4140,27 @@
       <c r="BK30" s="50"/>
       <c r="BL30" s="50"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31" s="5"/>
-      <c r="F31"/>
+      <c r="B31" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="87">
+        <v>0</v>
+      </c>
+      <c r="E31" s="94">
+        <v>44158</v>
+      </c>
+      <c r="F31" s="95">
+        <v>44163</v>
+      </c>
       <c r="G31" s="25"/>
-      <c r="H31" s="25" t="str">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+      <c r="H31" s="25">
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
       <c r="I31" s="50"/>
       <c r="J31" s="50"/>
@@ -4079,17 +4219,27 @@
       <c r="BK31" s="50"/>
       <c r="BL31" s="50"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="65"/>
+      <c r="B32" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="87">
+        <v>0</v>
+      </c>
+      <c r="E32" s="94">
+        <v>44158</v>
+      </c>
+      <c r="F32" s="95">
+        <v>44163</v>
+      </c>
       <c r="G32" s="25"/>
-      <c r="H32" s="25" t="str">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+      <c r="H32" s="25">
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
       <c r="I32" s="50"/>
       <c r="J32" s="50"/>
@@ -4148,17 +4298,27 @@
       <c r="BK32" s="50"/>
       <c r="BL32" s="50"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="18"/>
-      <c r="D33"/>
-      <c r="E33" s="5"/>
-      <c r="F33"/>
+      <c r="B33" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="87">
+        <v>0</v>
+      </c>
+      <c r="E33" s="94">
+        <v>44158</v>
+      </c>
+      <c r="F33" s="95">
+        <v>44163</v>
+      </c>
       <c r="G33" s="25"/>
-      <c r="H33" s="25" t="str">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+      <c r="H33" s="25">
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
       <c r="I33" s="50"/>
       <c r="J33" s="50"/>
@@ -4217,17 +4377,25 @@
       <c r="BK33" s="50"/>
       <c r="BL33" s="50"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19"/>
-      <c r="B34" s="68"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34" s="5"/>
-      <c r="F34"/>
+      <c r="B34" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="86"/>
+      <c r="D34" s="87">
+        <v>0</v>
+      </c>
+      <c r="E34" s="94">
+        <v>44158</v>
+      </c>
+      <c r="F34" s="95">
+        <v>44163</v>
+      </c>
       <c r="G34" s="25"/>
-      <c r="H34" s="25" t="str">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+      <c r="H34" s="25">
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
       <c r="I34" s="50"/>
       <c r="J34" s="50"/>
@@ -4286,17 +4454,27 @@
       <c r="BK34" s="50"/>
       <c r="BL34" s="50"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35" s="5"/>
-      <c r="F35"/>
+      <c r="B35" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="87">
+        <v>0</v>
+      </c>
+      <c r="E35" s="94">
+        <v>44158</v>
+      </c>
+      <c r="F35" s="95">
+        <v>44163</v>
+      </c>
       <c r="G35" s="25"/>
-      <c r="H35" s="25" t="str">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+      <c r="H35" s="25">
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
       <c r="I35" s="50"/>
       <c r="J35" s="50"/>
@@ -4355,17 +4533,27 @@
       <c r="BK35" s="50"/>
       <c r="BL35" s="50"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36" s="5"/>
-      <c r="F36"/>
+      <c r="B36" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="87">
+        <v>0</v>
+      </c>
+      <c r="E36" s="94">
+        <v>44158</v>
+      </c>
+      <c r="F36" s="95">
+        <v>44163</v>
+      </c>
       <c r="G36" s="25"/>
-      <c r="H36" s="25" t="str">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+      <c r="H36" s="25">
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
       <c r="I36" s="50"/>
       <c r="J36" s="50"/>
@@ -4424,17 +4612,27 @@
       <c r="BK36" s="50"/>
       <c r="BL36" s="50"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19"/>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37" s="5"/>
-      <c r="F37"/>
+      <c r="B37" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="87">
+        <v>0</v>
+      </c>
+      <c r="E37" s="94">
+        <v>44158</v>
+      </c>
+      <c r="F37" s="95">
+        <v>44163</v>
+      </c>
       <c r="G37" s="25"/>
-      <c r="H37" s="25" t="str">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+      <c r="H37" s="25">
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
       <c r="I37" s="50"/>
       <c r="J37" s="50"/>
@@ -4493,17 +4691,25 @@
       <c r="BK37" s="50"/>
       <c r="BL37" s="50"/>
     </row>
-    <row r="38" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38" s="5"/>
-      <c r="F38"/>
+      <c r="B38" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="86"/>
+      <c r="D38" s="87">
+        <v>0</v>
+      </c>
+      <c r="E38" s="94">
+        <v>44163</v>
+      </c>
+      <c r="F38" s="95">
+        <v>44163</v>
+      </c>
       <c r="G38" s="25"/>
-      <c r="H38" s="25" t="str">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+      <c r="H38" s="25">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="I38" s="50"/>
       <c r="J38" s="50"/>
@@ -4562,17 +4768,27 @@
       <c r="BK38" s="50"/>
       <c r="BL38" s="50"/>
     </row>
-    <row r="39" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39" s="5"/>
-      <c r="F39"/>
+      <c r="B39" s="85" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="87">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="94">
+        <v>44158</v>
+      </c>
+      <c r="F39" s="95">
+        <v>44170</v>
+      </c>
       <c r="G39" s="25"/>
-      <c r="H39" s="25" t="str">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+      <c r="H39" s="25">
+        <f t="shared" si="8"/>
+        <v>13</v>
       </c>
       <c r="I39" s="50"/>
       <c r="J39" s="50"/>
@@ -4631,16 +4847,11 @@
       <c r="BK39" s="50"/>
       <c r="BL39" s="50"/>
     </row>
-    <row r="40" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40" s="5"/>
-      <c r="F40"/>
       <c r="G40" s="25"/>
       <c r="H40" s="25" t="str">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I40" s="50"/>
@@ -4700,16 +4911,18 @@
       <c r="BK40" s="50"/>
       <c r="BL40" s="50"/>
     </row>
-    <row r="41" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41" s="5"/>
-      <c r="F41"/>
+      <c r="B41" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="47"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="97"/>
       <c r="G41" s="25"/>
       <c r="H41" s="25" t="str">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I41" s="50"/>
@@ -4769,16 +4982,18 @@
       <c r="BK41" s="50"/>
       <c r="BL41" s="50"/>
     </row>
-    <row r="42" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19"/>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42" s="5"/>
-      <c r="F42"/>
+      <c r="B42" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="90"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="99"/>
       <c r="G42" s="25"/>
       <c r="H42" s="25" t="str">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I42" s="50"/>
@@ -4838,16 +5053,18 @@
       <c r="BK42" s="50"/>
       <c r="BL42" s="50"/>
     </row>
-    <row r="43" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="19"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43" s="5"/>
-      <c r="F43"/>
+      <c r="B43" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="90"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="99"/>
       <c r="G43" s="25"/>
       <c r="H43" s="25" t="str">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I43" s="50"/>
@@ -4907,16 +5124,18 @@
       <c r="BK43" s="50"/>
       <c r="BL43" s="50"/>
     </row>
-    <row r="44" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44" s="5"/>
-      <c r="F44"/>
+      <c r="B44" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="90"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="99"/>
       <c r="G44" s="25"/>
       <c r="H44" s="25" t="str">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I44" s="50"/>
@@ -4976,7 +5195,7 @@
       <c r="BK44" s="50"/>
       <c r="BL44" s="50"/>
     </row>
-    <row r="45" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -4985,7 +5204,7 @@
       <c r="F45"/>
       <c r="G45" s="25"/>
       <c r="H45" s="25" t="str">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I45" s="50"/>
@@ -5045,16 +5264,16 @@
       <c r="BK45" s="50"/>
       <c r="BL45" s="50"/>
     </row>
-    <row r="46" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="19"/>
-      <c r="B46"/>
-      <c r="C46"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
       <c r="D46"/>
       <c r="E46" s="5"/>
-      <c r="F46"/>
+      <c r="F46" s="65"/>
       <c r="G46" s="25"/>
       <c r="H46" s="25" t="str">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I46" s="50"/>
@@ -5114,16 +5333,16 @@
       <c r="BK46" s="50"/>
       <c r="BL46" s="50"/>
     </row>
-    <row r="47" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="19"/>
-      <c r="B47"/>
-      <c r="C47"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="18"/>
       <c r="D47"/>
       <c r="E47" s="5"/>
       <c r="F47"/>
       <c r="G47" s="25"/>
       <c r="H47" s="25" t="str">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I47" s="50"/>
@@ -5183,16 +5402,16 @@
       <c r="BK47" s="50"/>
       <c r="BL47" s="50"/>
     </row>
-    <row r="48" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="19"/>
-      <c r="B48"/>
+      <c r="B48" s="68"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48" s="5"/>
       <c r="F48"/>
       <c r="G48" s="25"/>
       <c r="H48" s="25" t="str">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I48" s="50"/>
@@ -5252,7 +5471,7 @@
       <c r="BK48" s="50"/>
       <c r="BL48" s="50"/>
     </row>
-    <row r="49" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="19"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -5261,7 +5480,7 @@
       <c r="F49"/>
       <c r="G49" s="25"/>
       <c r="H49" s="25" t="str">
-        <f t="shared" ref="H49:H56" si="8">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H49:H56" si="9">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I49" s="50"/>
@@ -5321,7 +5540,7 @@
       <c r="BK49" s="50"/>
       <c r="BL49" s="50"/>
     </row>
-    <row r="50" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="19"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -5330,7 +5549,7 @@
       <c r="F50"/>
       <c r="G50" s="25"/>
       <c r="H50" s="25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I50" s="50"/>
@@ -5390,7 +5609,7 @@
       <c r="BK50" s="50"/>
       <c r="BL50" s="50"/>
     </row>
-    <row r="51" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="19"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -5399,7 +5618,7 @@
       <c r="F51"/>
       <c r="G51" s="25"/>
       <c r="H51" s="25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I51" s="50"/>
@@ -5459,7 +5678,7 @@
       <c r="BK51" s="50"/>
       <c r="BL51" s="50"/>
     </row>
-    <row r="52" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="19"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -5468,7 +5687,7 @@
       <c r="F52"/>
       <c r="G52" s="25"/>
       <c r="H52" s="25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I52" s="50"/>
@@ -5528,7 +5747,7 @@
       <c r="BK52" s="50"/>
       <c r="BL52" s="50"/>
     </row>
-    <row r="53" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="19"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -5537,7 +5756,7 @@
       <c r="F53"/>
       <c r="G53" s="25"/>
       <c r="H53" s="25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I53" s="50"/>
@@ -5597,7 +5816,7 @@
       <c r="BK53" s="50"/>
       <c r="BL53" s="50"/>
     </row>
-    <row r="54" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="19"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -5606,7 +5825,7 @@
       <c r="F54"/>
       <c r="G54" s="25"/>
       <c r="H54" s="25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I54" s="50"/>
@@ -5666,7 +5885,7 @@
       <c r="BK54" s="50"/>
       <c r="BL54" s="50"/>
     </row>
-    <row r="55" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="19"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -5675,7 +5894,7 @@
       <c r="F55"/>
       <c r="G55" s="25"/>
       <c r="H55" s="25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I55" s="50"/>
@@ -5735,7 +5954,7 @@
       <c r="BK55" s="50"/>
       <c r="BL55" s="50"/>
     </row>
-    <row r="56" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="19"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -5744,7 +5963,7 @@
       <c r="F56"/>
       <c r="G56" s="25"/>
       <c r="H56" s="25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I56" s="50"/>
@@ -5804,7 +6023,7 @@
       <c r="BK56" s="50"/>
       <c r="BL56" s="50"/>
     </row>
-    <row r="57" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="19"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -5870,7 +6089,7 @@
       <c r="BK57" s="50"/>
       <c r="BL57" s="50"/>
     </row>
-    <row r="58" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="19"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -5936,7 +6155,7 @@
       <c r="BK58" s="50"/>
       <c r="BL58" s="50"/>
     </row>
-    <row r="59" spans="1:64" s="3" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:64" s="3" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="19"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -6005,7 +6224,7 @@
       <c r="BK59" s="50"/>
       <c r="BL59" s="50"/>
     </row>
-    <row r="60" spans="1:64" s="3" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:64" s="3" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -6071,7 +6290,7 @@
       <c r="BK60" s="50"/>
       <c r="BL60" s="50"/>
     </row>
-    <row r="61" spans="1:64" s="3" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:64" s="3" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="19"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -6137,7 +6356,7 @@
       <c r="BK61" s="50"/>
       <c r="BL61" s="50"/>
     </row>
-    <row r="62" spans="1:64" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:64" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="19"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -6203,7 +6422,7 @@
       <c r="BK62" s="52"/>
       <c r="BL62" s="52"/>
     </row>
-    <row r="63" spans="1:64" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:64" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A63" s="19"/>
       <c r="B63"/>
       <c r="C63"/>
@@ -6269,7 +6488,7 @@
       <c r="BK63" s="93"/>
       <c r="BL63" s="93"/>
     </row>
-    <row r="64" spans="1:64" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:64" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="19"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -6335,7 +6554,7 @@
       <c r="BK64" s="93"/>
       <c r="BL64" s="93"/>
     </row>
-    <row r="65" spans="1:64" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:64" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="19"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -6401,25 +6620,25 @@
       <c r="BK65" s="93"/>
       <c r="BL65" s="93"/>
     </row>
-    <row r="66" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="G66" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:AA1"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="J1:AA1"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="BF4:BL4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D30">
+  <conditionalFormatting sqref="D41:D44 D7:D39">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -6494,13 +6713,13 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>213360</xdr:rowOff>
+                    <xdr:rowOff>209550</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>33</xdr:col>
-                    <xdr:colOff>83820</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>220980</xdr:rowOff>
+                    <xdr:rowOff>219075</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6526,7 +6745,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D30</xm:sqref>
+          <xm:sqref>D41:D44 D7:D39</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6540,108 +6759,108 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="54" customWidth="1"/>
-    <col min="2" max="2" width="87.109375" style="61" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="54"/>
+    <col min="1" max="1" width="2.85546875" style="54" customWidth="1"/>
+    <col min="2" max="2" width="87.140625" style="61" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="53"/>
     </row>
-    <row r="2" spans="2:3" s="56" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" s="56" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="55"/>
     </row>
-    <row r="3" spans="2:3" s="58" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" s="58" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="57" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="57"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="67" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="53"/>
     </row>
-    <row r="6" spans="2:3" s="59" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:3" s="59" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B6" s="62" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" ht="60" x14ac:dyDescent="0.2">
       <c r="B7" s="63" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="60"/>
     </row>
-    <row r="9" spans="2:3" s="59" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:3" s="59" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B9" s="62" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" ht="60" x14ac:dyDescent="0.2">
       <c r="B10" s="63" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B11" s="64" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="60"/>
     </row>
-    <row r="13" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B13" s="70" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToMakeAGanttChart","► Watch How This Gantt Chart Was Created")</f>
         <v>► Watch How This Gantt Chart Was Created</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" ht="15" x14ac:dyDescent="0.2">
       <c r="B14" s="60"/>
     </row>
-    <row r="15" spans="2:3" s="59" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:3" s="59" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B15" s="62" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" ht="30" x14ac:dyDescent="0.2">
       <c r="B16" s="63" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B17" s="64" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B18" s="60"/>
     </row>
-    <row r="19" spans="2:2" s="59" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:2" s="59" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B19" s="62" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="60" x14ac:dyDescent="0.2">
       <c r="B20" s="63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B21" s="60"/>
     </row>
-    <row r="22" spans="2:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" ht="75" x14ac:dyDescent="0.2">
       <c r="B22" s="63" t="s">
         <v>15</v>
       </c>
